--- a/Fullcost 2025.xlsx
+++ b/Fullcost 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weber\Labo\ProgrammesPython\Git_others\full_cost_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7DCAEA-32ED-4858-B799-251B0AD064F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21EB6C-75E1-4BB2-9701-BEF66D5E76BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{611ACD34-EE3C-455C-A218-99DD83210040}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{611ACD34-EE3C-455C-A218-99DD83210040}"/>
   </bookViews>
   <sheets>
     <sheet name="TEM" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="263">
   <si>
     <t>Activités</t>
   </si>
@@ -1627,6 +1627,21 @@
   </si>
   <si>
     <t xml:space="preserve">Notes : Enlever le HF2000 </t>
+  </si>
+  <si>
+    <t>GROWTH</t>
+  </si>
+  <si>
+    <t>IMPLANT</t>
+  </si>
+  <si>
+    <t>SPECTRO</t>
+  </si>
+  <si>
+    <t>MAGNET</t>
+  </si>
+  <si>
+    <t>SPECTRO_CHEMISTRY</t>
   </si>
 </sst>
 </file>
@@ -3847,6 +3862,90 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3865,9 +3964,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3887,84 +3983,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3973,22 +4006,64 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4009,65 +4084,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4084,23 +4117,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4138,32 +4180,20 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4180,24 +4210,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4222,41 +4273,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4264,18 +4330,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4285,65 +4360,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4353,45 +4407,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4720,7 +4735,7 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4757,15 +4772,15 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -4774,92 +4789,92 @@
       <c r="B4" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="173" t="s">
+      <c r="G4" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="171"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="168"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="171"/>
-      <c r="G6" s="157" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="168"/>
+      <c r="G6" s="155" t="s">
         <v>257</v>
       </c>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="172"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="169"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="177" t="s">
         <v>163</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="156">
         <v>261</v>
       </c>
-      <c r="D8" s="160">
+      <c r="D8" s="158">
         <v>651</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="153">
         <v>814</v>
       </c>
-      <c r="G8" s="174" t="s">
+      <c r="G8" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="174"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
         <v>20</v>
@@ -4873,13 +4888,13 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="53" t="s">
         <v>92</v>
       </c>
@@ -4899,13 +4914,13 @@
       <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="47" t="s">
         <v>94</v>
       </c>
@@ -4925,13 +4940,13 @@
       <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="153"/>
       <c r="G11" s="47" t="s">
         <v>108</v>
       </c>
@@ -4945,13 +4960,13 @@
       <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="163"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160"/>
       <c r="G12" s="47" t="s">
         <v>112</v>
       </c>
@@ -4968,19 +4983,19 @@
       <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="147" t="s">
         <v>164</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="149">
         <v>625</v>
       </c>
-      <c r="D13" s="181">
+      <c r="D13" s="151">
         <v>971</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="153">
         <v>1214</v>
       </c>
       <c r="G13" s="58" t="s">
@@ -4997,34 +5012,34 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="162"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="153"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="178"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="G15" s="175" t="s">
+      <c r="C15" s="150"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="154"/>
+      <c r="G15" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="177"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="146"/>
       <c r="P15" s="96"/>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5040,11 +5055,11 @@
     <row r="22" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="G6:O6"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
@@ -5054,11 +5069,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:O5"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -5090,12 +5105,12 @@
       <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="255" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="225"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="219"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5104,22 +5119,22 @@
       <c r="B2" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="233" t="s">
+      <c r="C2" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="235"/>
-      <c r="G2" s="313" t="s">
+      <c r="D2" s="243"/>
+      <c r="E2" s="244"/>
+      <c r="G2" s="310" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="310"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
@@ -5128,40 +5143,40 @@
       <c r="B3" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="314" t="s">
+      <c r="C3" s="311" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="317" t="s">
+      <c r="D3" s="314" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="320" t="s">
+      <c r="E3" s="317" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="100"/>
-      <c r="C4" s="315"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="321"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="318"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
-      <c r="B5" s="152" t="s">
+      <c r="A5" s="175"/>
+      <c r="B5" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="315"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="321"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="318"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="148"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="322"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="319"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122" t="s">
@@ -5184,25 +5199,25 @@
       <c r="A8" s="223" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="311" t="s">
+      <c r="B8" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="266">
+      <c r="C8" s="278">
         <v>81</v>
       </c>
-      <c r="D8" s="267">
+      <c r="D8" s="279">
         <v>976</v>
       </c>
-      <c r="E8" s="268">
+      <c r="E8" s="280">
         <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="178"/>
-      <c r="B9" s="312"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="325"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="154"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="26" t="s">
@@ -5235,7 +5250,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="323" t="s">
+      <c r="A12" s="320" t="s">
         <v>222</v>
       </c>
       <c r="B12" s="125" t="s">
@@ -5258,7 +5273,7 @@
       <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="324"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="125" t="s">
         <v>224</v>
       </c>
@@ -5277,7 +5292,7 @@
       <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="324"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="125" t="s">
         <v>225</v>
       </c>
@@ -5294,7 +5309,7 @@
       <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="325"/>
+      <c r="A15" s="322"/>
       <c r="B15" s="125" t="s">
         <v>226</v>
       </c>
@@ -5334,11 +5349,6 @@
     <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -5348,6 +5358,11 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -5409,39 +5424,39 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="170" t="s">
         <v>247</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="G3" s="191" t="s">
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="G3" s="184" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -5450,58 +5465,58 @@
       <c r="B4" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="171"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="168"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="171"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="168"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="172"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="169"/>
       <c r="G7" s="26" t="s">
         <v>98</v>
       </c>
@@ -5519,19 +5534,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="190" t="s">
         <v>167</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="156">
         <v>119</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="151">
         <v>1366</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="153">
         <v>1708</v>
       </c>
       <c r="G8" s="53" t="s">
@@ -5551,13 +5566,13 @@
       <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="47" t="s">
         <v>108</v>
       </c>
@@ -5571,13 +5586,13 @@
       <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="47" t="s">
         <v>112</v>
       </c>
@@ -5593,13 +5608,13 @@
       <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
       <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
@@ -5613,33 +5628,33 @@
       <c r="O11" s="59"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="143" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="162"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="153"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="162"/>
-      <c r="G13" s="187" t="s">
+      <c r="C13" s="156"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="153"/>
+      <c r="G13" s="186" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="189"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="188"/>
     </row>
     <row r="14" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="94" t="s">
@@ -5648,9 +5663,9 @@
       <c r="B14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="183"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="154"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,8 +5685,8 @@
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -5703,21 +5718,21 @@
     <row r="26" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G3:O5"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -5733,7 +5748,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E15" sqref="A15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,17 +5770,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="G1" s="173" t="s">
+      <c r="G1" s="170" t="s">
         <v>240</v>
       </c>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5777,37 +5792,37 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
@@ -5816,58 +5831,58 @@
       <c r="B4" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="196"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="216"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="214"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
+      <c r="A6" s="175"/>
       <c r="B6" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="216"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="110"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="217"/>
       <c r="G7" s="26" t="s">
         <v>99</v>
       </c>
@@ -5885,19 +5900,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="192" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="156">
         <v>202</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="151">
         <v>341</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="153">
         <v>426</v>
       </c>
       <c r="G8" s="53" t="s">
@@ -5913,13 +5928,13 @@
       <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="209"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="47" t="s">
         <v>101</v>
       </c>
@@ -5941,13 +5956,13 @@
       <c r="O9" s="70"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="209"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="71" t="s">
         <v>104</v>
       </c>
@@ -5963,13 +5978,13 @@
       <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="209"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
       <c r="G11" s="47" t="s">
         <v>108</v>
       </c>
@@ -5983,13 +5998,13 @@
       <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="209"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="162"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="153"/>
       <c r="G12" s="47" t="s">
         <v>112</v>
       </c>
@@ -6005,13 +6020,13 @@
       <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="162"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="153"/>
       <c r="G13" s="58" t="s">
         <v>110</v>
       </c>
@@ -6026,39 +6041,19 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="210"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="163"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="160"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="198" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="200" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="202">
-        <v>281</v>
-      </c>
-      <c r="D15" s="204">
-        <v>652</v>
-      </c>
-      <c r="E15" s="206">
-        <v>815</v>
-      </c>
       <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="199"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="207"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -6071,34 +6066,34 @@
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="193" t="s">
+      <c r="G17" s="213" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
       <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="192" t="s">
+      <c r="G18" s="212" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="212"/>
+      <c r="O18" s="212"/>
       <c r="P18" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -6107,7 +6102,14 @@
       <c r="C20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="14">
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G2:O5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A3:B3"/>
@@ -6115,18 +6117,6 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="D8:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G2:O5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -6139,10 +6129,10 @@
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6150,7 +6140,7 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6158,12 +6148,12 @@
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
@@ -6175,39 +6165,39 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="224" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="G3" s="221" t="s">
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="G3" s="227" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
@@ -6216,71 +6206,71 @@
       <c r="B4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="226" t="s">
+      <c r="D4" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="221" t="s">
+      <c r="G4" s="227" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="171"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="168"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="171"/>
-      <c r="G6" s="187" t="s">
+      <c r="C6" s="196"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="168"/>
+      <c r="G6" s="186" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="189"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="188"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="172"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="222"/>
-      <c r="L7" s="222"/>
-      <c r="M7" s="222"/>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="169"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="223" t="s">
@@ -6289,19 +6279,19 @@
       <c r="B8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="156">
         <v>130</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="151">
         <v>419</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="153">
         <v>524</v>
       </c>
-      <c r="G8" s="220" t="s">
+      <c r="G8" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="220"/>
+      <c r="H8" s="226"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
         <v>20</v>
@@ -6315,13 +6305,13 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="53" t="s">
         <v>92</v>
       </c>
@@ -6339,13 +6329,13 @@
       <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="47" t="s">
         <v>94</v>
       </c>
@@ -6365,13 +6355,13 @@
       <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="72"/>
       <c r="G11" s="17" t="s">
         <v>106</v>
@@ -6384,13 +6374,16 @@
       <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="162"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="153"/>
+      <c r="F12" t="s">
+        <v>260</v>
+      </c>
       <c r="G12" s="47" t="s">
         <v>108</v>
       </c>
@@ -6404,13 +6397,13 @@
       <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="162"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="153"/>
       <c r="G13" s="47" t="s">
         <v>112</v>
       </c>
@@ -6427,13 +6420,13 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="162"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="153"/>
       <c r="G14" s="58" t="s">
         <v>110</v>
       </c>
@@ -6448,23 +6441,23 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="162"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="153"/>
       <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="153"/>
       <c r="G16" s="126" t="s">
         <v>142</v>
       </c>
@@ -6483,13 +6476,13 @@
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="153"/>
       <c r="G17" s="53" t="s">
         <v>92</v>
       </c>
@@ -6508,13 +6501,13 @@
       <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="153"/>
       <c r="G18" s="47" t="s">
         <v>94</v>
       </c>
@@ -6535,13 +6528,13 @@
       <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="153"/>
       <c r="G19" s="78" t="s">
         <v>105</v>
       </c>
@@ -6556,13 +6549,13 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="162"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="153"/>
       <c r="G20" s="47" t="s">
         <v>108</v>
       </c>
@@ -6581,9 +6574,9 @@
       <c r="B21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="162"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="153"/>
       <c r="G21" s="47" t="s">
         <v>112</v>
       </c>
@@ -6599,15 +6592,15 @@
       <c r="O21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="150" t="s">
+      <c r="A22" s="147" t="s">
         <v>182</v>
       </c>
       <c r="B22" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="162"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="153"/>
       <c r="G22" s="58" t="s">
         <v>110</v>
       </c>
@@ -6621,67 +6614,68 @@
       <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="153"/>
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="147" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="162"/>
-      <c r="G24" s="219" t="s">
+      <c r="C24" s="156"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="153"/>
+      <c r="G24" s="225" t="s">
         <v>250</v>
       </c>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="162"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="153"/>
+      <c r="F25" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="183"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="154"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="C8:C26"/>
     <mergeCell ref="D8:D26"/>
@@ -6693,6 +6687,16 @@
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="G7:O7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -6707,7 +6711,7 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6731,17 +6735,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="G1" s="218" t="s">
+      <c r="G1" s="224" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
@@ -6753,37 +6757,37 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="240" t="s">
+      <c r="G2" s="249" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="233" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="244"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -6792,42 +6796,42 @@
       <c r="B4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="249"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="242"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="230"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="242"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="230"/>
       <c r="G6" s="26" t="s">
         <v>113</v>
       </c>
@@ -6845,11 +6849,11 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="243"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="231"/>
       <c r="G7" s="53" t="s">
         <v>92</v>
       </c>
@@ -6869,19 +6873,19 @@
       <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="147" t="s">
         <v>189</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="229">
+      <c r="C8" s="238">
         <v>66</v>
       </c>
-      <c r="D8" s="236">
+      <c r="D8" s="245">
         <v>358</v>
       </c>
-      <c r="E8" s="238">
+      <c r="E8" s="247">
         <v>448</v>
       </c>
       <c r="G8" s="47" t="s">
@@ -6903,13 +6907,13 @@
       <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="247"/>
       <c r="G9" s="45" t="s">
         <v>106</v>
       </c>
@@ -6919,13 +6923,13 @@
       <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="238"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="247"/>
       <c r="G10" s="47" t="s">
         <v>108</v>
       </c>
@@ -6939,13 +6943,13 @@
       <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="150"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="230"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="238"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="247"/>
       <c r="G11" s="47" t="s">
         <v>112</v>
       </c>
@@ -6961,13 +6965,13 @@
       <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="238"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="247"/>
       <c r="G12" s="58" t="s">
         <v>110</v>
       </c>
@@ -6981,180 +6985,187 @@
       <c r="O12" s="59"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="230"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="238"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="247"/>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="230"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="238"/>
-      <c r="G14" s="175" t="s">
+      <c r="C14" s="239"/>
+      <c r="D14" s="245"/>
+      <c r="E14" s="247"/>
+      <c r="G14" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="177"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="146"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="238"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="247"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="230"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="238"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="247"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="230"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="238"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="247"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="230"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="238"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="247"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="230"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="238"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="247"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="230"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="238"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="247"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="238"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="245"/>
+      <c r="E21" s="247"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="230"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="238"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="245"/>
+      <c r="E22" s="247"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="230"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="238"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="247"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="230"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="238"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="247"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="230"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="238"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="245"/>
+      <c r="E25" s="247"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="238"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="245"/>
+      <c r="E26" s="247"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="230"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="238"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="247"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="150"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="230"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="238"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="247"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="150"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="231"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="238"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="247"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="178"/>
+      <c r="A30" s="148"/>
       <c r="B30" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="232"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="239"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="A8:A30"/>
+    <mergeCell ref="C8:C30"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D8:D30"/>
+    <mergeCell ref="E8:E30"/>
+    <mergeCell ref="G2:O4"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="D4:D7"/>
@@ -7162,13 +7173,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="A8:A30"/>
-    <mergeCell ref="C8:C30"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D8:D30"/>
-    <mergeCell ref="E8:E30"/>
-    <mergeCell ref="G2:O4"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -7181,10 +7185,10 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7200,12 +7204,12 @@
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="255" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="252"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="257"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
@@ -7217,39 +7221,39 @@
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
       <c r="E2" s="113"/>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="224" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="233" t="s">
+      <c r="B3" s="258"/>
+      <c r="C3" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="235"/>
-      <c r="G3" s="157" t="s">
+      <c r="D3" s="243"/>
+      <c r="E3" s="244"/>
+      <c r="G3" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
@@ -7258,28 +7262,28 @@
       <c r="B4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="C4" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="226" t="s">
+      <c r="D4" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="167" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="171"/>
-      <c r="G5" s="174" t="s">
+      <c r="C5" s="196"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="168"/>
+      <c r="G5" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="174"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
         <v>20</v>
@@ -7293,13 +7297,13 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="171"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="168"/>
       <c r="G6" s="53" t="s">
         <v>92</v>
       </c>
@@ -7319,11 +7323,11 @@
       <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="172"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="169"/>
       <c r="G7" s="47" t="s">
         <v>94</v>
       </c>
@@ -7349,13 +7353,13 @@
       <c r="B8" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="156">
         <v>281</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="151">
         <v>652</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="153">
         <v>815</v>
       </c>
       <c r="G8" s="47" t="s">
@@ -7372,13 +7376,13 @@
       <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="47" t="s">
         <v>112</v>
       </c>
@@ -7395,13 +7399,13 @@
       <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="58" t="s">
         <v>110</v>
       </c>
@@ -7416,158 +7420,192 @@
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="162"/>
-      <c r="G12" s="256" t="s">
+      <c r="C12" s="156"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="153"/>
+      <c r="G12" s="251" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
       <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="162"/>
-      <c r="G13" s="256" t="s">
+      <c r="C13" s="156"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="153"/>
+      <c r="G13" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="162"/>
-      <c r="G14" s="257" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="153"/>
+      <c r="G14" s="252" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="257"/>
-      <c r="I14" s="257"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="257"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="252"/>
+      <c r="O14" s="252"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="162"/>
-      <c r="G15" s="258" t="s">
+      <c r="C15" s="156"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="153"/>
+      <c r="G15" s="253" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="258"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="258"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="253"/>
+      <c r="O15" s="253"/>
       <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="162"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="259"/>
-      <c r="K16" s="259"/>
-      <c r="L16" s="259"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="153"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="254"/>
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="255"/>
+      <c r="A17" s="250"/>
       <c r="B17" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="153"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="254" t="s">
+      <c r="A18" s="259" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="153"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="153"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
+      <c r="A20" s="148"/>
       <c r="B20" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="183"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="154"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="202" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="204" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="206">
+        <v>281</v>
+      </c>
+      <c r="D21" s="208">
+        <v>652</v>
+      </c>
+      <c r="E21" s="210">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="203"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="211"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="G5:H5"/>
@@ -7583,11 +7621,6 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G15:O16"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -7636,39 +7669,39 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="G3" s="221" t="s">
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="G3" s="227" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
@@ -7677,24 +7710,24 @@
       <c r="B4" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="215" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="196"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="216"/>
       <c r="G5" s="129" t="s">
         <v>114</v>
       </c>
@@ -7712,13 +7745,13 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="196"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="216"/>
       <c r="G6" s="53" t="s">
         <v>92</v>
       </c>
@@ -7732,11 +7765,11 @@
       <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="197"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="217"/>
       <c r="G7" s="47" t="s">
         <v>94</v>
       </c>
@@ -7752,19 +7785,19 @@
       <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="147" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="156">
         <v>95</v>
       </c>
-      <c r="D8" s="181">
+      <c r="D8" s="151">
         <v>149</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="153">
         <v>186</v>
       </c>
       <c r="G8" s="78" t="s">
@@ -7780,13 +7813,13 @@
       <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="47" t="s">
         <v>108</v>
       </c>
@@ -7800,13 +7833,13 @@
       <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="47" t="s">
         <v>112</v>
       </c>
@@ -7822,13 +7855,13 @@
       <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
       <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
@@ -7842,22 +7875,22 @@
       <c r="O11" s="59"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="162"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="153"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="162"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="153"/>
       <c r="G13" s="129" t="s">
         <v>144</v>
       </c>
@@ -7875,13 +7908,13 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="162"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="153"/>
       <c r="G14" s="53" t="s">
         <v>92</v>
       </c>
@@ -7897,13 +7930,13 @@
       <c r="O14" s="60"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="162"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="153"/>
       <c r="G15" s="47" t="s">
         <v>94</v>
       </c>
@@ -7921,13 +7954,13 @@
       <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="153"/>
       <c r="G16" s="78" t="s">
         <v>105</v>
       </c>
@@ -7937,13 +7970,13 @@
       <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="153"/>
       <c r="G17" s="47" t="s">
         <v>108</v>
       </c>
@@ -7957,13 +7990,13 @@
       <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="153"/>
       <c r="G18" s="47" t="s">
         <v>112</v>
       </c>
@@ -7979,13 +8012,13 @@
       <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="178"/>
+      <c r="A19" s="148"/>
       <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="154"/>
       <c r="G19" s="58" t="s">
         <v>110</v>
       </c>
@@ -8013,6 +8046,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C8:C19"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="E8:E19"/>
+    <mergeCell ref="G3:O3"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="D4:D7"/>
@@ -8020,13 +8060,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="A8:A19"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:C19"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="E8:E19"/>
-    <mergeCell ref="G3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8043,7 +8076,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8076,37 +8109,37 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="264" t="s">
+      <c r="G2" s="276" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="116" t="s">
@@ -8115,146 +8148,149 @@
       <c r="B4" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="215" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="196"/>
-      <c r="G5" s="175" t="s">
+      <c r="C5" s="196"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="216"/>
+      <c r="G5" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="177"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="146"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="216"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="197"/>
-      <c r="G7" s="265" t="s">
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="217"/>
+      <c r="G7" s="277" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="265"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="277"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="277"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="277"/>
+      <c r="O7" s="277"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="278" t="s">
+      <c r="A8" s="270" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="266">
+      <c r="C8" s="278">
         <v>122</v>
       </c>
-      <c r="D8" s="267">
+      <c r="D8" s="279">
         <v>219</v>
       </c>
-      <c r="E8" s="268">
+      <c r="E8" s="280">
         <v>274</v>
       </c>
-      <c r="G8" s="269" t="s">
+      <c r="G8" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="270"/>
-      <c r="I8" s="270"/>
-      <c r="J8" s="270"/>
-      <c r="K8" s="270"/>
-      <c r="L8" s="270"/>
-      <c r="M8" s="270"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="271"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="263"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="279"/>
+      <c r="A9" s="271"/>
       <c r="B9" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
-      <c r="G9" s="272"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="273"/>
-      <c r="L9" s="273"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="273"/>
-      <c r="O9" s="274"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="264"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="266"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="279"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="276"/>
-      <c r="K10" s="276"/>
-      <c r="L10" s="276"/>
-      <c r="M10" s="276"/>
-      <c r="N10" s="276"/>
-      <c r="O10" s="277"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="268"/>
+      <c r="K10" s="268"/>
+      <c r="L10" s="268"/>
+      <c r="M10" s="268"/>
+      <c r="N10" s="268"/>
+      <c r="O10" s="269"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="280"/>
+      <c r="A11" s="272"/>
       <c r="B11" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="163"/>
-      <c r="G11" s="173" t="s">
+      <c r="C11" s="157"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="160"/>
+      <c r="G11" s="170" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
     </row>
     <row r="12" spans="1:15" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91" t="s">
@@ -8272,17 +8308,20 @@
       <c r="E12" s="32">
         <v>3698</v>
       </c>
-      <c r="G12" s="261" t="s">
+      <c r="F12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="273" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="262"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="262"/>
-      <c r="L12" s="262"/>
-      <c r="M12" s="262"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="263"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
+      <c r="J12" s="274"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="275"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G13" s="118"/>
@@ -8434,11 +8473,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G8:O10"/>
-    <mergeCell ref="A8:A11"/>
     <mergeCell ref="G12:O12"/>
     <mergeCell ref="G2:O3"/>
     <mergeCell ref="G5:O5"/>
@@ -8451,6 +8485,11 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="G8:O10"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -8498,22 +8537,22 @@
       <c r="B2" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="285" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="308"/>
-      <c r="E2" s="309"/>
-      <c r="G2" s="218" t="s">
+      <c r="D2" s="286"/>
+      <c r="E2" s="287"/>
+      <c r="G2" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
@@ -8522,60 +8561,60 @@
       <c r="B3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="214" t="s">
+      <c r="D3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="191" t="s">
+      <c r="G3" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="174" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="100"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="196"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="216"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
-      <c r="B5" s="152" t="s">
+      <c r="A5" s="175"/>
+      <c r="B5" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="216"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="148"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="197"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="217"/>
       <c r="G6" s="120" t="s">
         <v>193</v>
       </c>
@@ -8599,13 +8638,13 @@
       <c r="B7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="266">
+      <c r="C7" s="278">
         <v>413</v>
       </c>
-      <c r="D7" s="267">
+      <c r="D7" s="279">
         <v>540</v>
       </c>
-      <c r="E7" s="268">
+      <c r="E7" s="280">
         <v>676</v>
       </c>
       <c r="G7" s="53" t="s">
@@ -8627,13 +8666,13 @@
       <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="153"/>
       <c r="G8" s="47" t="s">
         <v>94</v>
       </c>
@@ -8653,13 +8692,13 @@
       <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
       <c r="G9" s="47" t="s">
         <v>108</v>
       </c>
@@ -8677,15 +8716,15 @@
       <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="259" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
       <c r="G10" s="47" t="s">
         <v>112</v>
       </c>
@@ -8701,13 +8740,13 @@
       <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
       <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
@@ -8721,13 +8760,13 @@
       <c r="O11" s="59"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="163"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="160"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="141" t="s">
@@ -8739,17 +8778,17 @@
       <c r="C13" s="127"/>
       <c r="D13" s="130"/>
       <c r="E13" s="128"/>
-      <c r="G13" s="173" t="s">
+      <c r="G13" s="170" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -8758,26 +8797,26 @@
       <c r="B14" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="287" t="s">
+      <c r="C14" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="288"/>
-      <c r="E14" s="289"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="309"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="303" t="s">
+      <c r="A15" s="281" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="305" t="s">
+      <c r="B15" s="283" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="158">
+      <c r="C15" s="156">
         <v>1166</v>
       </c>
-      <c r="D15" s="181">
+      <c r="D15" s="151">
         <v>1459</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="153">
         <v>1824</v>
       </c>
       <c r="G15" s="131" t="s">
@@ -8797,11 +8836,11 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="304"/>
-      <c r="B16" s="306"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
+      <c r="A16" s="282"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="154"/>
       <c r="G16" s="53" t="s">
         <v>92</v>
       </c>
@@ -8830,14 +8869,14 @@
       <c r="O17" s="44"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="298" t="s">
+      <c r="B18" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="295" t="s">
+      <c r="C18" s="290" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="296"/>
-      <c r="E18" s="297"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="292"/>
       <c r="G18" s="47" t="s">
         <v>108</v>
       </c>
@@ -8855,12 +8894,12 @@
       <c r="O18" s="46"/>
     </row>
     <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="299"/>
-      <c r="C19" s="300" t="s">
+      <c r="B19" s="294"/>
+      <c r="C19" s="295" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="301"/>
-      <c r="E19" s="302"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="297"/>
       <c r="G19" s="47" t="s">
         <v>112</v>
       </c>
@@ -8876,14 +8915,14 @@
       <c r="O19" s="46"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="283" t="s">
+      <c r="B20" s="288" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="281" t="s">
+      <c r="C20" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="281"/>
-      <c r="E20" s="282"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="299"/>
       <c r="G20" s="58" t="s">
         <v>110</v>
       </c>
@@ -8897,137 +8936,166 @@
       <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="284"/>
-      <c r="C21" s="285" t="s">
+      <c r="B21" s="289"/>
+      <c r="C21" s="300" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="285"/>
-      <c r="E21" s="286"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="301"/>
     </row>
     <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="283" t="s">
+      <c r="B22" s="288" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="281" t="s">
+      <c r="C22" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="281"/>
-      <c r="E22" s="282"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="299"/>
     </row>
     <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="284"/>
-      <c r="C23" s="285" t="s">
+      <c r="B23" s="289"/>
+      <c r="C23" s="300" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="285"/>
-      <c r="E23" s="286"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="301"/>
     </row>
     <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="283" t="s">
+      <c r="B24" s="288" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="281" t="s">
+      <c r="C24" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="281"/>
-      <c r="E24" s="282"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="299"/>
     </row>
     <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="284"/>
-      <c r="C25" s="281" t="s">
+      <c r="B25" s="289"/>
+      <c r="C25" s="298" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="281"/>
-      <c r="E25" s="282"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="299"/>
     </row>
     <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="283" t="s">
+      <c r="B26" s="288" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="281" t="s">
+      <c r="C26" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="281"/>
-      <c r="E26" s="282"/>
+      <c r="D26" s="298"/>
+      <c r="E26" s="299"/>
     </row>
     <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="284"/>
-      <c r="C27" s="281" t="s">
+      <c r="B27" s="289"/>
+      <c r="C27" s="298" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="281"/>
-      <c r="E27" s="282"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="299"/>
     </row>
     <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="283" t="s">
+      <c r="B28" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="281" t="s">
+      <c r="C28" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="282"/>
+      <c r="D28" s="298"/>
+      <c r="E28" s="299"/>
     </row>
     <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="283"/>
-      <c r="C29" s="281" t="s">
+      <c r="B29" s="288"/>
+      <c r="C29" s="298" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="281"/>
-      <c r="E29" s="282"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="299"/>
     </row>
     <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="283"/>
-      <c r="C30" s="281" t="s">
+      <c r="B30" s="288"/>
+      <c r="C30" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="282"/>
+      <c r="D30" s="298"/>
+      <c r="E30" s="299"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="290" t="s">
+      <c r="B31" s="302" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="281" t="s">
+      <c r="C31" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="299"/>
     </row>
     <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="290"/>
-      <c r="C32" s="281" t="s">
+      <c r="B32" s="302"/>
+      <c r="C32" s="298" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="281"/>
-      <c r="E32" s="282"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="299"/>
     </row>
     <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="290"/>
-      <c r="C33" s="281" t="s">
+      <c r="B33" s="302"/>
+      <c r="C33" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="281"/>
-      <c r="E33" s="282"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="299"/>
     </row>
     <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="290"/>
-      <c r="C34" s="281" t="s">
+      <c r="B34" s="302"/>
+      <c r="C34" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="281"/>
-      <c r="E34" s="282"/>
+      <c r="D34" s="298"/>
+      <c r="E34" s="299"/>
     </row>
     <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="291"/>
-      <c r="C35" s="292" t="s">
+      <c r="B35" s="303"/>
+      <c r="C35" s="304" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="293"/>
-      <c r="E35" s="294"/>
+      <c r="D35" s="305"/>
+      <c r="E35" s="306"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O4"/>
     <mergeCell ref="A15:A16"/>
@@ -9044,35 +9112,6 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>

--- a/Fullcost 2025.xlsx
+++ b/Fullcost 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weber\Labo\ProgrammesPython\Git_others\full_cost_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21EB6C-75E1-4BB2-9701-BEF66D5E76BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D830526-134F-4CC9-8B94-BE09D7E02E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{611ACD34-EE3C-455C-A218-99DD83210040}"/>
+    <workbookView xWindow="-3590" yWindow="1990" windowWidth="14400" windowHeight="8260" activeTab="2" xr2:uid="{611ACD34-EE3C-455C-A218-99DD83210040}"/>
   </bookViews>
   <sheets>
     <sheet name="TEM" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="266">
   <si>
     <t>Activités</t>
   </si>
@@ -1642,6 +1642,15 @@
   </si>
   <si>
     <t>SPECTRO_CHEMISTRY</t>
+  </si>
+  <si>
+    <t>CLEANR</t>
+  </si>
+  <si>
+    <t>NEARF</t>
+  </si>
+  <si>
+    <t>FIB_LITHO</t>
   </si>
 </sst>
 </file>
@@ -3862,6 +3871,99 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3871,9 +3973,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3889,122 +3988,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4036,6 +4063,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4066,118 +4189,19 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4195,24 +4219,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4249,29 +4282,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4294,71 +4369,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4398,15 +4416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4736,20 +4745,20 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
+    <col min="12" max="12" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4769,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -4771,110 +4780,110 @@
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+    <row r="3" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="99" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="170" t="s">
+      <c r="G4" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="146" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="168"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="171"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="168"/>
-      <c r="G6" s="155" t="s">
+      <c r="C6" s="165"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="171"/>
+      <c r="G6" s="157" t="s">
         <v>257</v>
       </c>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="169"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177" t="s">
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="172"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="149" t="s">
         <v>163</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="158">
         <v>261</v>
       </c>
-      <c r="D8" s="158">
+      <c r="D8" s="160">
         <v>651</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="162">
         <v>814</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="G8" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="171"/>
+      <c r="H8" s="174"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
         <v>20</v>
@@ -4887,14 +4896,14 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
       <c r="B9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="53" t="s">
         <v>92</v>
       </c>
@@ -4913,14 +4922,14 @@
       <c r="N9" s="55"/>
       <c r="O9" s="56"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="150"/>
       <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="47" t="s">
         <v>94</v>
       </c>
@@ -4939,14 +4948,14 @@
       <c r="N10" s="75"/>
       <c r="O10" s="44"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="150"/>
       <c r="B11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="162"/>
       <c r="G11" s="47" t="s">
         <v>108</v>
       </c>
@@ -4959,14 +4968,14 @@
       <c r="N11" s="5"/>
       <c r="O11" s="46"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178"/>
+    <row r="12" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="151"/>
       <c r="B12" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="163"/>
       <c r="G12" s="47" t="s">
         <v>112</v>
       </c>
@@ -4982,20 +4991,20 @@
       <c r="O12" s="46"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147" t="s">
+    <row r="13" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="150" t="s">
         <v>164</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="149">
+      <c r="C13" s="179">
         <v>625</v>
       </c>
-      <c r="D13" s="151">
+      <c r="D13" s="181">
         <v>971</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="162">
         <v>1214</v>
       </c>
       <c r="G13" s="58" t="s">
@@ -5011,55 +5020,55 @@
       <c r="O13" s="59"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
+    <row r="14" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="150"/>
       <c r="B14" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="153"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="162"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
+    <row r="15" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="178"/>
       <c r="B15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="154"/>
-      <c r="G15" s="144" t="s">
+      <c r="C15" s="180"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
+      <c r="G15" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="146"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="177"/>
       <c r="P15" s="96"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="16:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="16:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="16:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="16:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="16:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="16:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="G6:O6"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
@@ -5069,11 +5078,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:O5"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -5088,97 +5097,97 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="250" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="219"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="215"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="243"/>
-      <c r="E2" s="244"/>
-      <c r="G2" s="310" t="s">
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
+      <c r="G2" s="313" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-      <c r="L2" s="310"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="310"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="314" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="314" t="s">
+      <c r="D3" s="317" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="317" t="s">
+      <c r="E3" s="320" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="100"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="315"/>
-      <c r="E4" s="318"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175"/>
-      <c r="B5" s="179" t="s">
+      <c r="C4" s="315"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="321"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="147"/>
+      <c r="B5" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="312"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="318"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="176"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="313"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="319"/>
-    </row>
-    <row r="7" spans="1:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="315"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="321"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="148"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="322"/>
+    </row>
+    <row r="7" spans="1:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="122" t="s">
         <v>214</v>
       </c>
@@ -5195,31 +5204,31 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
+    <row r="8" spans="1:15" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="213" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="324" t="s">
+      <c r="B8" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="278">
+      <c r="C8" s="266">
         <v>81</v>
       </c>
-      <c r="D8" s="279">
+      <c r="D8" s="267">
         <v>976</v>
       </c>
-      <c r="E8" s="280">
+      <c r="E8" s="268">
         <v>1121</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
-      <c r="B9" s="325"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="154"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="178"/>
+      <c r="B9" s="312"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G10" s="26" t="s">
         <v>217</v>
       </c>
@@ -5234,7 +5243,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G11" s="53" t="s">
         <v>216</v>
       </c>
@@ -5249,8 +5258,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="320" t="s">
+    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="323" t="s">
         <v>222</v>
       </c>
       <c r="B12" s="125" t="s">
@@ -5272,8 +5281,8 @@
       <c r="N12" s="48"/>
       <c r="O12" s="44"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="321"/>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="324"/>
       <c r="B13" s="125" t="s">
         <v>224</v>
       </c>
@@ -5291,8 +5300,8 @@
       <c r="N13" s="75"/>
       <c r="O13" s="46"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="321"/>
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="324"/>
       <c r="B14" s="125" t="s">
         <v>225</v>
       </c>
@@ -5308,8 +5317,8 @@
       <c r="N14" s="5"/>
       <c r="O14" s="46"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322"/>
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="325"/>
       <c r="B15" s="125" t="s">
         <v>226</v>
       </c>
@@ -5327,7 +5336,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="46"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="125"/>
       <c r="B16" s="125"/>
       <c r="G16" s="58" t="s">
@@ -5342,13 +5351,18 @@
       <c r="N16" s="50"/>
       <c r="O16" s="59"/>
     </row>
-    <row r="17" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -5358,11 +5372,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -5375,7 +5384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5393,17 +5402,17 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
@@ -5414,7 +5423,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -5424,99 +5433,99 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="170" t="s">
+      <c r="G2" s="173" t="s">
         <v>247</v>
       </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="G3" s="184" t="s">
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="G3" s="191" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="168"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="171"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="168"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="169"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="171"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="172"/>
       <c r="G7" s="26" t="s">
         <v>98</v>
       </c>
@@ -5533,20 +5542,20 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="190" t="s">
+    <row r="8" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="184" t="s">
         <v>167</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="158">
         <v>119</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="181">
         <v>1366</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="162">
         <v>1708</v>
       </c>
       <c r="G8" s="53" t="s">
@@ -5565,14 +5574,14 @@
       <c r="N8" s="74"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
+    <row r="9" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="185"/>
       <c r="B9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="47" t="s">
         <v>108</v>
       </c>
@@ -5585,14 +5594,14 @@
       <c r="N9" s="5"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
+    <row r="10" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="185"/>
       <c r="B10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="47" t="s">
         <v>112</v>
       </c>
@@ -5607,14 +5616,14 @@
       <c r="N10" s="5"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
+    <row r="11" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="185"/>
       <c r="B11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162"/>
       <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
@@ -5627,48 +5636,48 @@
       <c r="N11" s="50"/>
       <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
+    <row r="12" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="185"/>
       <c r="B12" s="143" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="153"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="162"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="185"/>
       <c r="B13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="153"/>
-      <c r="G13" s="186" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="162"/>
+      <c r="G13" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
-    </row>
-    <row r="14" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="189"/>
+    </row>
+    <row r="14" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="94" t="s">
         <v>168</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="154"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="183"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
       <c r="B15" s="1"/>
       <c r="C15" s="33"/>
@@ -5676,7 +5685,7 @@
       <c r="E15" s="33"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29"/>
       <c r="B16" s="1"/>
       <c r="C16" s="33"/>
@@ -5684,9 +5693,9 @@
       <c r="E16" s="33"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
+    <row r="17" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -5696,7 +5705,7 @@
       <c r="O17" s="42"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="41"/>
@@ -5708,31 +5717,31 @@
       <c r="O18" s="67"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="7:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="7:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:O5"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:O5"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -5747,20 +5756,20 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="A15:E16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
@@ -5770,19 +5779,19 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -5792,97 +5801,97 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="214" t="s">
+      <c r="G2" s="194" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-    </row>
-    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+    </row>
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="216"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="214"/>
-      <c r="O5" s="214"/>
-    </row>
-    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="196"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+    </row>
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="147"/>
       <c r="B6" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="216"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="196"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
       <c r="B7" s="110"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="217"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="197"/>
       <c r="G7" s="26" t="s">
         <v>99</v>
       </c>
@@ -5899,20 +5908,20 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="192" t="s">
+    <row r="8" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="198" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="158">
         <v>202</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="181">
         <v>341</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="162">
         <v>426</v>
       </c>
       <c r="G8" s="53" t="s">
@@ -5927,14 +5936,14 @@
       <c r="N8" s="65"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+    <row r="9" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="199"/>
       <c r="B9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="47" t="s">
         <v>101</v>
       </c>
@@ -5955,14 +5964,14 @@
       <c r="N9" s="68"/>
       <c r="O9" s="70"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
+    <row r="10" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="199"/>
       <c r="B10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="71" t="s">
         <v>104</v>
       </c>
@@ -5977,14 +5986,14 @@
       <c r="N10" s="5"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+    <row r="11" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="199"/>
       <c r="B11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162"/>
       <c r="G11" s="47" t="s">
         <v>108</v>
       </c>
@@ -5997,14 +6006,14 @@
       <c r="N11" s="5"/>
       <c r="O11" s="46"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="193"/>
+    <row r="12" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="199"/>
       <c r="B12" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="153"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="162"/>
       <c r="G12" s="47" t="s">
         <v>112</v>
       </c>
@@ -6019,14 +6028,14 @@
       <c r="N12" s="5"/>
       <c r="O12" s="46"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="193"/>
+    <row r="13" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="199"/>
       <c r="B13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="153"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="162"/>
       <c r="G13" s="58" t="s">
         <v>110</v>
       </c>
@@ -6040,20 +6049,20 @@
       <c r="O13" s="59"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="194"/>
+    <row r="14" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="200"/>
       <c r="B14" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="160"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="163"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -6065,44 +6074,51 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="213" t="s">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="213"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="212" t="s">
+      <c r="G18" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="212"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D8:D14"/>
     <mergeCell ref="E8:E14"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="G18:O18"/>
@@ -6110,13 +6126,6 @@
     <mergeCell ref="G2:O5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D8:D14"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -6131,31 +6140,31 @@
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="111" t="s">
         <v>160</v>
       </c>
@@ -6165,133 +6174,133 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="G3" s="227" t="s">
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="G3" s="211" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="227" t="s">
+      <c r="G4" s="211" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="227"/>
-      <c r="O4" s="227"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="168"/>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="171"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="168"/>
-      <c r="G6" s="186" t="s">
+      <c r="C6" s="202"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="171"/>
+      <c r="G6" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="188"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="169"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="223" t="s">
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="189"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="172"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="213" t="s">
         <v>179</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="158">
         <v>130</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="181">
         <v>419</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="162">
         <v>524</v>
       </c>
-      <c r="G8" s="226" t="s">
+      <c r="G8" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="226"/>
+      <c r="H8" s="210"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
         <v>20</v>
@@ -6304,14 +6313,14 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
       <c r="B9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="53" t="s">
         <v>92</v>
       </c>
@@ -6328,14 +6337,14 @@
       <c r="N9" s="65"/>
       <c r="O9" s="60"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="150"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="47" t="s">
         <v>94</v>
       </c>
@@ -6354,14 +6363,14 @@
       <c r="N10" s="52"/>
       <c r="O10" s="44"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="150"/>
       <c r="B11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162"/>
       <c r="F11" s="72"/>
       <c r="G11" s="17" t="s">
         <v>106</v>
@@ -6373,14 +6382,14 @@
       <c r="N11" s="77"/>
       <c r="O11" s="46"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="150"/>
       <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="153"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="162"/>
       <c r="F12" t="s">
         <v>260</v>
       </c>
@@ -6396,14 +6405,14 @@
       <c r="N12" s="5"/>
       <c r="O12" s="46"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="150"/>
       <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="153"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="162"/>
       <c r="G13" s="47" t="s">
         <v>112</v>
       </c>
@@ -6419,14 +6428,14 @@
       <c r="O13" s="46"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
+    <row r="14" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="150"/>
       <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="153"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="162"/>
       <c r="G14" s="58" t="s">
         <v>110</v>
       </c>
@@ -6440,24 +6449,24 @@
       <c r="O14" s="59"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
+    <row r="15" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="150"/>
       <c r="B15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="153"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="162"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="150"/>
       <c r="B16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="153"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="162"/>
       <c r="G16" s="126" t="s">
         <v>142</v>
       </c>
@@ -6475,14 +6484,14 @@
       <c r="O16" s="4"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="150"/>
       <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="162"/>
       <c r="G17" s="53" t="s">
         <v>92</v>
       </c>
@@ -6500,14 +6509,14 @@
       <c r="O17" s="60"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="150"/>
       <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="153"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="162"/>
       <c r="G18" s="47" t="s">
         <v>94</v>
       </c>
@@ -6527,14 +6536,14 @@
       <c r="O18" s="44"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+    <row r="19" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="150"/>
       <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="153"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="162"/>
       <c r="G19" s="78" t="s">
         <v>105</v>
       </c>
@@ -6548,14 +6557,14 @@
       <c r="O19" s="46"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+    <row r="20" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="150"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="153"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="162"/>
       <c r="G20" s="47" t="s">
         <v>108</v>
       </c>
@@ -6569,14 +6578,14 @@
       <c r="O20" s="46"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="153"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="162"/>
       <c r="G21" s="47" t="s">
         <v>112</v>
       </c>
@@ -6591,16 +6600,16 @@
       <c r="N21" s="5"/>
       <c r="O21" s="46"/>
     </row>
-    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147" t="s">
+    <row r="22" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="150" t="s">
         <v>182</v>
       </c>
       <c r="B22" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="153"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="162"/>
       <c r="G22" s="58" t="s">
         <v>110</v>
       </c>
@@ -6613,60 +6622,60 @@
       <c r="N22" s="50"/>
       <c r="O22" s="59"/>
     </row>
-    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147"/>
+    <row r="23" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="150"/>
       <c r="B23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="153"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="162"/>
       <c r="P23" s="18"/>
     </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="147" t="s">
+    <row r="24" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="150" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="153"/>
-      <c r="G24" s="225" t="s">
+      <c r="C24" s="158"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="162"/>
+      <c r="G24" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="225"/>
-      <c r="N24" s="225"/>
-      <c r="O24" s="225"/>
-    </row>
-    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="209"/>
+    </row>
+    <row r="25" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="150"/>
       <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="156"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="153"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="162"/>
       <c r="F25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
+    <row r="26" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="178"/>
       <c r="B26" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="154"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="190"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>261</v>
       </c>
@@ -6676,6 +6685,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="C8:C26"/>
     <mergeCell ref="D8:D26"/>
@@ -6687,16 +6706,6 @@
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="G7:O7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -6711,21 +6720,21 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
@@ -6735,19 +6744,19 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="G1" s="224" t="s">
+      <c r="G1" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="111" t="s">
         <v>160</v>
       </c>
@@ -6757,81 +6766,81 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="230" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="244"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="230"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="99" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="235" t="s">
+      <c r="C4" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="232" t="s">
+      <c r="D4" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="230"/>
+      <c r="N4" s="230"/>
+      <c r="O4" s="230"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="230"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+      <c r="C5" s="238"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="232"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="230"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="232"/>
       <c r="G6" s="26" t="s">
         <v>113</v>
       </c>
@@ -6848,12 +6857,12 @@
       <c r="N6" s="51"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="231"/>
+    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="233"/>
       <c r="G7" s="53" t="s">
         <v>92</v>
       </c>
@@ -6872,20 +6881,20 @@
       <c r="N7" s="77"/>
       <c r="O7" s="60"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="150" t="s">
         <v>189</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="238">
+      <c r="C8" s="219">
         <v>66</v>
       </c>
-      <c r="D8" s="245">
+      <c r="D8" s="226">
         <v>358</v>
       </c>
-      <c r="E8" s="247">
+      <c r="E8" s="228">
         <v>448</v>
       </c>
       <c r="G8" s="47" t="s">
@@ -6906,14 +6915,14 @@
       <c r="N8" s="52"/>
       <c r="O8" s="44"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="247"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="228"/>
       <c r="G9" s="45" t="s">
         <v>106</v>
       </c>
@@ -6922,14 +6931,14 @@
       <c r="N9" s="5"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="150"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="247"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="228"/>
       <c r="G10" s="47" t="s">
         <v>108</v>
       </c>
@@ -6942,14 +6951,14 @@
       <c r="N10" s="5"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="150"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="239"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="247"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="228"/>
       <c r="G11" s="47" t="s">
         <v>112</v>
       </c>
@@ -6964,14 +6973,14 @@
       <c r="N11" s="5"/>
       <c r="O11" s="46"/>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="150"/>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="239"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="247"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="228"/>
       <c r="G12" s="58" t="s">
         <v>110</v>
       </c>
@@ -6984,181 +6993,188 @@
       <c r="N12" s="50"/>
       <c r="O12" s="59"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="150"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="239"/>
-      <c r="D13" s="245"/>
-      <c r="E13" s="247"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="228"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="150"/>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="239"/>
-      <c r="D14" s="245"/>
-      <c r="E14" s="247"/>
-      <c r="G14" s="144" t="s">
+      <c r="C14" s="220"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="228"/>
+      <c r="G14" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="146"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="177"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="150"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="239"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="247"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="228"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="150"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="247"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="228"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="150"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="D17" s="245"/>
-      <c r="E17" s="247"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="228"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="150"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="245"/>
-      <c r="E18" s="247"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="228"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="150"/>
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="239"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="247"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="228"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="150"/>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="239"/>
-      <c r="D20" s="245"/>
-      <c r="E20" s="247"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="228"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="150"/>
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="247"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="228"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="150"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="239"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="247"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="228"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="150"/>
       <c r="B23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="247"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="228"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="150"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="247"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="228"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="150"/>
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="D25" s="245"/>
-      <c r="E25" s="247"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="228"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="150"/>
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="247"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="228"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="150"/>
       <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="239"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="247"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="147"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="228"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="150"/>
       <c r="B28" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="239"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="247"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="228"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="150"/>
       <c r="B29" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="240"/>
-      <c r="D29" s="245"/>
-      <c r="E29" s="247"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="228"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="178"/>
       <c r="B30" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="241"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="248"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="G14:O14"/>
     <mergeCell ref="A8:A30"/>
     <mergeCell ref="C8:C30"/>
@@ -7166,13 +7182,6 @@
     <mergeCell ref="D8:D30"/>
     <mergeCell ref="E8:E30"/>
     <mergeCell ref="G2:O4"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -7187,31 +7196,31 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="250" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="257"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="252"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="111" t="s">
         <v>160</v>
       </c>
@@ -7221,69 +7230,69 @@
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
       <c r="E2" s="113"/>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="244"/>
-      <c r="G3" s="155" t="s">
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
+      <c r="G3" s="157" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="196" t="s">
+      <c r="C4" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="170" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="168"/>
-      <c r="G5" s="171" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="171"/>
+      <c r="G5" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="171"/>
+      <c r="H5" s="174"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
         <v>20</v>
@@ -7296,14 +7305,14 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+    <row r="6" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="168"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="171"/>
       <c r="G6" s="53" t="s">
         <v>92</v>
       </c>
@@ -7322,12 +7331,12 @@
       <c r="N6" s="73"/>
       <c r="O6" s="60"/>
     </row>
-    <row r="7" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="169"/>
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="172"/>
       <c r="G7" s="47" t="s">
         <v>94</v>
       </c>
@@ -7346,20 +7355,20 @@
       <c r="N7" s="52"/>
       <c r="O7" s="44"/>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
+    <row r="8" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="213" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="158">
         <v>281</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="181">
         <v>652</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="162">
         <v>815</v>
       </c>
       <c r="G8" s="47" t="s">
@@ -7375,14 +7384,14 @@
       <c r="O8" s="46"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
       <c r="B9" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="47" t="s">
         <v>112</v>
       </c>
@@ -7398,14 +7407,14 @@
       <c r="O9" s="46"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="150"/>
       <c r="B10" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="58" t="s">
         <v>110</v>
       </c>
@@ -7419,193 +7428,192 @@
       <c r="O10" s="59"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:16" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="150"/>
       <c r="B11" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="150"/>
       <c r="B12" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="153"/>
-      <c r="G12" s="251" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="162"/>
+      <c r="F12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="251"/>
-      <c r="M12" s="251"/>
-      <c r="N12" s="251"/>
-      <c r="O12" s="251"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+    <row r="13" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="150"/>
       <c r="B13" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="153"/>
-      <c r="G13" s="251" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="162"/>
+      <c r="G13" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="251"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="256"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
+    <row r="14" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="150"/>
       <c r="B14" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="153"/>
-      <c r="G14" s="252" t="s">
+      <c r="C14" s="158"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="162"/>
+      <c r="G14" s="257" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="252"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
+      <c r="H14" s="257"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="257"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="257"/>
+      <c r="O14" s="257"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
+    <row r="15" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="150"/>
       <c r="B15" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="153"/>
-      <c r="G15" s="253" t="s">
+      <c r="C15" s="158"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="162"/>
+      <c r="G15" s="258" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="253"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="253"/>
-      <c r="M15" s="253"/>
-      <c r="N15" s="253"/>
-      <c r="O15" s="253"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="258"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="150"/>
       <c r="B16" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="153"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="254"/>
-      <c r="K16" s="254"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="254"/>
-      <c r="O16" s="254"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="162"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="250"/>
+    <row r="17" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="255"/>
       <c r="B17" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="153"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="259" t="s">
+      <c r="C17" s="158"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="162"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="254" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="153"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="162"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="150"/>
       <c r="B19" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="153"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="162"/>
+      <c r="F19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="178"/>
       <c r="B20" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="154"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="202" t="s">
+      <c r="C20" s="190"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="183"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="240" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="242" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="206">
+      <c r="C21" s="244">
         <v>281</v>
       </c>
-      <c r="D21" s="208">
+      <c r="D21" s="246">
         <v>652</v>
       </c>
-      <c r="E21" s="210">
+      <c r="E21" s="248">
         <v>815</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="211"/>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="241"/>
+      <c r="B22" s="243"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="249"/>
+      <c r="F22" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="G5:H5"/>
@@ -7621,6 +7629,16 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G15:O16"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -7635,20 +7653,20 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
@@ -7659,7 +7677,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -7669,65 +7687,65 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="G3" s="227" t="s">
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="G3" s="211" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="115" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="195" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="216"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="196"/>
       <c r="G5" s="129" t="s">
         <v>114</v>
       </c>
@@ -7744,14 +7762,14 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="196"/>
       <c r="G6" s="53" t="s">
         <v>92</v>
       </c>
@@ -7764,12 +7782,12 @@
       <c r="N6" s="65"/>
       <c r="O6" s="60"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="217"/>
+    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="197"/>
       <c r="G7" s="47" t="s">
         <v>94</v>
       </c>
@@ -7784,20 +7802,20 @@
       <c r="N7" s="43"/>
       <c r="O7" s="44"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="150" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="158">
         <v>95</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="181">
         <v>149</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="162">
         <v>186</v>
       </c>
       <c r="G8" s="78" t="s">
@@ -7812,14 +7830,14 @@
       <c r="N8" s="5"/>
       <c r="O8" s="46"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="47" t="s">
         <v>108</v>
       </c>
@@ -7832,14 +7850,14 @@
       <c r="N9" s="5"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
+    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="150"/>
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="47" t="s">
         <v>112</v>
       </c>
@@ -7854,14 +7872,14 @@
       <c r="N10" s="5"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="150"/>
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162"/>
       <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
@@ -7874,23 +7892,23 @@
       <c r="N11" s="50"/>
       <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
+    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="150"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="153"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="162"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="150"/>
       <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="153"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="162"/>
       <c r="G13" s="129" t="s">
         <v>144</v>
       </c>
@@ -7907,14 +7925,14 @@
       <c r="N13" s="51"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="150"/>
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="153"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="162"/>
       <c r="G14" s="53" t="s">
         <v>92</v>
       </c>
@@ -7929,14 +7947,14 @@
       <c r="N14" s="37"/>
       <c r="O14" s="60"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="150"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="153"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="162"/>
       <c r="G15" s="47" t="s">
         <v>94</v>
       </c>
@@ -7953,14 +7971,14 @@
       <c r="N15" s="52"/>
       <c r="O15" s="44"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="150"/>
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="153"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="162"/>
       <c r="G16" s="78" t="s">
         <v>105</v>
       </c>
@@ -7969,14 +7987,14 @@
       <c r="N16" s="5"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
+    <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="150"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="162"/>
       <c r="G17" s="47" t="s">
         <v>108</v>
       </c>
@@ -7989,14 +8007,14 @@
       <c r="N17" s="5"/>
       <c r="O17" s="46"/>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="150"/>
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="153"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="162"/>
       <c r="G18" s="47" t="s">
         <v>112</v>
       </c>
@@ -8011,14 +8029,14 @@
       <c r="N18" s="5"/>
       <c r="O18" s="46"/>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
+    <row r="19" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="178"/>
       <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="154"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
       <c r="G19" s="58" t="s">
         <v>110</v>
       </c>
@@ -8031,7 +8049,7 @@
       <c r="N19" s="50"/>
       <c r="O19" s="59"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G21" s="260" t="s">
         <v>145</v>
       </c>
@@ -8046,6 +8064,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="G21:O21"/>
     <mergeCell ref="A8:A19"/>
     <mergeCell ref="C3:E3"/>
@@ -8053,13 +8078,6 @@
     <mergeCell ref="D8:D19"/>
     <mergeCell ref="E8:E19"/>
     <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8076,19 +8094,19 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C8" sqref="C8:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
@@ -8099,7 +8117,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -8109,190 +8127,190 @@
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="276" t="s">
+      <c r="G2" s="264" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="195" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="100"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="216"/>
-      <c r="G5" s="144" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="196"/>
+      <c r="G5" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="146"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="177"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="147"/>
+      <c r="B6" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="216"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="217"/>
-      <c r="G7" s="277" t="s">
+      <c r="C6" s="202"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="196"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="197"/>
+      <c r="G7" s="265" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="277"/>
-      <c r="I7" s="277"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="277"/>
-      <c r="O7" s="277"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="270" t="s">
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="278" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="278">
+      <c r="C8" s="266">
         <v>122</v>
       </c>
-      <c r="D8" s="279">
+      <c r="D8" s="267">
         <v>219</v>
       </c>
-      <c r="E8" s="280">
+      <c r="E8" s="268">
         <v>274</v>
       </c>
-      <c r="G8" s="261" t="s">
+      <c r="G8" s="269" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="263"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="271"/>
+      <c r="H8" s="270"/>
+      <c r="I8" s="270"/>
+      <c r="J8" s="270"/>
+      <c r="K8" s="270"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="270"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="271"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="279"/>
       <c r="B9" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="F9" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="264"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="265"/>
-      <c r="N9" s="265"/>
-      <c r="O9" s="266"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="271"/>
+      <c r="G9" s="272"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="273"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="273"/>
+      <c r="O9" s="274"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="279"/>
       <c r="B10" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="269"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="272"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="276"/>
+      <c r="K10" s="276"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="276"/>
+      <c r="N10" s="276"/>
+      <c r="O10" s="277"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="280"/>
       <c r="B11" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="160"/>
-      <c r="G11" s="170" t="s">
+      <c r="C11" s="159"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="163"/>
+      <c r="G11" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-    </row>
-    <row r="12" spans="1:15" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+    </row>
+    <row r="12" spans="1:15" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="91" t="s">
         <v>186</v>
       </c>
@@ -8311,19 +8329,19 @@
       <c r="F12" t="s">
         <v>259</v>
       </c>
-      <c r="G12" s="273" t="s">
+      <c r="G12" s="261" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="274"/>
-      <c r="I12" s="274"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="274"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="274"/>
-      <c r="O12" s="275"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="262"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="263"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G13" s="118"/>
       <c r="H13" s="118"/>
       <c r="I13" s="118"/>
@@ -8334,7 +8352,7 @@
       <c r="N13" s="118"/>
       <c r="O13" s="118"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G14" s="26" t="s">
         <v>148</v>
       </c>
@@ -8351,7 +8369,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G15" s="53" t="s">
         <v>136</v>
       </c>
@@ -8366,7 +8384,7 @@
       <c r="N15" s="37"/>
       <c r="O15" s="60"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G16" s="47" t="s">
         <v>138</v>
       </c>
@@ -8379,7 +8397,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="44"/>
     </row>
-    <row r="17" spans="7:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G17" s="47" t="s">
         <v>139</v>
       </c>
@@ -8394,7 +8412,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="46"/>
     </row>
-    <row r="18" spans="7:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="71" t="s">
         <v>104</v>
       </c>
@@ -8407,7 +8425,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="46"/>
     </row>
-    <row r="19" spans="7:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G19" s="47" t="s">
         <v>108</v>
       </c>
@@ -8420,7 +8438,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="46"/>
     </row>
-    <row r="20" spans="7:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G20" s="47" t="s">
         <v>112</v>
       </c>
@@ -8435,7 +8453,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="46"/>
     </row>
-    <row r="21" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G21" s="58" t="s">
         <v>110</v>
       </c>
@@ -8448,10 +8466,10 @@
       <c r="N21" s="50"/>
       <c r="O21" s="59"/>
     </row>
-    <row r="22" spans="7:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="8:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="7:15" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="8:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
       <c r="J34" s="89"/>
@@ -8461,7 +8479,7 @@
       <c r="N34" s="89"/>
       <c r="O34" s="89"/>
     </row>
-    <row r="35" spans="8:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H35" s="117"/>
       <c r="I35" s="117"/>
       <c r="J35" s="117"/>
@@ -8473,6 +8491,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="G8:O10"/>
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="G12:O12"/>
     <mergeCell ref="G2:O3"/>
     <mergeCell ref="G5:O5"/>
@@ -8485,11 +8508,6 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="G8:O10"/>
-    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -8504,22 +8522,22 @@
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G24" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
@@ -8530,91 +8548,91 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="307" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="287"/>
-      <c r="G2" s="224" t="s">
+      <c r="D2" s="308"/>
+      <c r="E2" s="309"/>
+      <c r="G2" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="195" t="s">
+      <c r="C3" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="215" t="s">
+      <c r="E3" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="184" t="s">
+      <c r="G3" s="191" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="146" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="100"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="216"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175"/>
-      <c r="B5" s="179" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="196"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="147"/>
+      <c r="B5" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="216"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="176"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="217"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="196"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="148"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="197"/>
       <c r="G6" s="120" t="s">
         <v>193</v>
       </c>
@@ -8631,20 +8649,20 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="223" t="s">
+    <row r="7" spans="1:15" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="213" t="s">
         <v>209</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="278">
+      <c r="C7" s="266">
         <v>413</v>
       </c>
-      <c r="D7" s="279">
+      <c r="D7" s="267">
         <v>540</v>
       </c>
-      <c r="E7" s="280">
+      <c r="E7" s="268">
         <v>676</v>
       </c>
       <c r="G7" s="53" t="s">
@@ -8665,14 +8683,14 @@
       <c r="N7" s="55"/>
       <c r="O7" s="56"/>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147"/>
+    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="150"/>
       <c r="B8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="153"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="47" t="s">
         <v>94</v>
       </c>
@@ -8691,14 +8709,14 @@
       <c r="N8" s="75"/>
       <c r="O8" s="44"/>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
+    <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
       <c r="B9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="162"/>
       <c r="G9" s="47" t="s">
         <v>108</v>
       </c>
@@ -8715,16 +8733,16 @@
       <c r="N9" s="49"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="259" t="s">
+    <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="254" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="162"/>
       <c r="G10" s="47" t="s">
         <v>112</v>
       </c>
@@ -8739,14 +8757,14 @@
       <c r="N10" s="5"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+    <row r="11" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="150"/>
       <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162"/>
       <c r="G11" s="58" t="s">
         <v>110</v>
       </c>
@@ -8759,16 +8777,16 @@
       <c r="N11" s="50"/>
       <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:15" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178"/>
+    <row r="12" spans="1:15" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="151"/>
       <c r="B12" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="160"/>
-    </row>
-    <row r="13" spans="1:15" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="159"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="163"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="141" t="s">
         <v>0</v>
       </c>
@@ -8778,45 +8796,45 @@
       <c r="C13" s="127"/>
       <c r="D13" s="130"/>
       <c r="E13" s="128"/>
-      <c r="G13" s="170" t="s">
+      <c r="G13" s="173" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-    </row>
-    <row r="14" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="307" t="s">
+      <c r="C14" s="287" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="308"/>
-      <c r="E14" s="309"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="281" t="s">
+      <c r="D14" s="288"/>
+      <c r="E14" s="289"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="303" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="283" t="s">
+      <c r="B15" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="156">
+      <c r="C15" s="158">
         <v>1166</v>
       </c>
-      <c r="D15" s="151">
+      <c r="D15" s="181">
         <v>1459</v>
       </c>
-      <c r="E15" s="153">
+      <c r="E15" s="162">
         <v>1824</v>
       </c>
       <c r="G15" s="131" t="s">
@@ -8835,12 +8853,12 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="282"/>
-      <c r="B16" s="284"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="154"/>
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="304"/>
+      <c r="B16" s="306"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
       <c r="G16" s="53" t="s">
         <v>92</v>
       </c>
@@ -8855,7 +8873,7 @@
       <c r="N16" s="37"/>
       <c r="O16" s="60"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G17" s="47" t="s">
         <v>94</v>
       </c>
@@ -8868,15 +8886,15 @@
       <c r="L17" s="43"/>
       <c r="O17" s="44"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="293" t="s">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="290" t="s">
+      <c r="C18" s="295" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="291"/>
-      <c r="E18" s="292"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="297"/>
       <c r="G18" s="47" t="s">
         <v>108</v>
       </c>
@@ -8893,13 +8911,13 @@
       <c r="N18" s="132"/>
       <c r="O18" s="46"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="294"/>
-      <c r="C19" s="295" t="s">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="299"/>
+      <c r="C19" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="296"/>
-      <c r="E19" s="297"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="302"/>
       <c r="G19" s="47" t="s">
         <v>112</v>
       </c>
@@ -8914,15 +8932,15 @@
       <c r="N19" s="5"/>
       <c r="O19" s="46"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="288" t="s">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="283" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="298" t="s">
+      <c r="C20" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="298"/>
-      <c r="E20" s="299"/>
+      <c r="D20" s="281"/>
+      <c r="E20" s="282"/>
       <c r="G20" s="58" t="s">
         <v>110</v>
       </c>
@@ -8935,138 +8953,167 @@
       <c r="N20" s="50"/>
       <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="289"/>
-      <c r="C21" s="300" t="s">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="284"/>
+      <c r="C21" s="285" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="300"/>
-      <c r="E21" s="301"/>
-    </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="288" t="s">
+      <c r="D21" s="285"/>
+      <c r="E21" s="286"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="283" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="298" t="s">
+      <c r="C22" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="298"/>
-      <c r="E22" s="299"/>
-    </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="289"/>
-      <c r="C23" s="300" t="s">
+      <c r="D22" s="281"/>
+      <c r="E22" s="282"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="284"/>
+      <c r="C23" s="285" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="300"/>
-      <c r="E23" s="301"/>
-    </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="288" t="s">
+      <c r="D23" s="285"/>
+      <c r="E23" s="286"/>
+    </row>
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="283" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="298" t="s">
+      <c r="C24" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="298"/>
-      <c r="E24" s="299"/>
-    </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="289"/>
-      <c r="C25" s="298" t="s">
+      <c r="D24" s="281"/>
+      <c r="E24" s="282"/>
+    </row>
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="284"/>
+      <c r="C25" s="281" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="298"/>
-      <c r="E25" s="299"/>
-    </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="288" t="s">
+      <c r="D25" s="281"/>
+      <c r="E25" s="282"/>
+    </row>
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="283" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="298" t="s">
+      <c r="C26" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="298"/>
-      <c r="E26" s="299"/>
-    </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="289"/>
-      <c r="C27" s="298" t="s">
+      <c r="D26" s="281"/>
+      <c r="E26" s="282"/>
+    </row>
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="284"/>
+      <c r="C27" s="281" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="298"/>
-      <c r="E27" s="299"/>
-    </row>
-    <row r="28" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="288" t="s">
+      <c r="D27" s="281"/>
+      <c r="E27" s="282"/>
+    </row>
+    <row r="28" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="283" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="298" t="s">
+      <c r="C28" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="298"/>
-      <c r="E28" s="299"/>
-    </row>
-    <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="288"/>
-      <c r="C29" s="298" t="s">
+      <c r="D28" s="281"/>
+      <c r="E28" s="282"/>
+    </row>
+    <row r="29" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="283"/>
+      <c r="C29" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="298"/>
-      <c r="E29" s="299"/>
-    </row>
-    <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="288"/>
-      <c r="C30" s="298" t="s">
+      <c r="D29" s="281"/>
+      <c r="E29" s="282"/>
+    </row>
+    <row r="30" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="283"/>
+      <c r="C30" s="281" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="298"/>
-      <c r="E30" s="299"/>
-    </row>
-    <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="302" t="s">
+      <c r="D30" s="281"/>
+      <c r="E30" s="282"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="290" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="298" t="s">
+      <c r="C31" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="298"/>
-      <c r="E31" s="299"/>
-    </row>
-    <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="302"/>
-      <c r="C32" s="298" t="s">
+      <c r="D31" s="281"/>
+      <c r="E31" s="282"/>
+    </row>
+    <row r="32" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="290"/>
+      <c r="C32" s="281" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="298"/>
-      <c r="E32" s="299"/>
-    </row>
-    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="302"/>
-      <c r="C33" s="298" t="s">
+      <c r="D32" s="281"/>
+      <c r="E32" s="282"/>
+    </row>
+    <row r="33" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="290"/>
+      <c r="C33" s="281" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="298"/>
-      <c r="E33" s="299"/>
-    </row>
-    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="302"/>
-      <c r="C34" s="298" t="s">
+      <c r="D33" s="281"/>
+      <c r="E33" s="282"/>
+    </row>
+    <row r="34" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="290"/>
+      <c r="C34" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="298"/>
-      <c r="E34" s="299"/>
-    </row>
-    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="303"/>
-      <c r="C35" s="304" t="s">
+      <c r="D34" s="281"/>
+      <c r="E34" s="282"/>
+    </row>
+    <row r="35" spans="2:5" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="291"/>
+      <c r="C35" s="292" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="305"/>
-      <c r="E35" s="306"/>
+      <c r="D35" s="293"/>
+      <c r="E35" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A7:A9"/>
@@ -9083,35 +9130,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
